--- a/Docs/仕様書.xlsx
+++ b/Docs/仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>各攻撃サイン→攻撃のタイミング(60fを基準にした場合)</t>
     <rPh sb="0" eb="1">
@@ -45,27 +45,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>点</t>
-    <rPh sb="0" eb="1">
-      <t>テン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>線</t>
-    <rPh sb="0" eb="1">
-      <t>セン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>円</t>
-    <rPh sb="0" eb="1">
-      <t>エン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>AIパターン</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -84,78 +63,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーに近づく。
-一定以上近づいたらプレイヤーの回りを回る</t>
-    <rPh sb="6" eb="7">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>マワ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>マワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボス1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーに高速で近づく。弾を一定間隔で打つ。</t>
-    <rPh sb="6" eb="8">
-      <t>コウソク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>タマ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カンカク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーから一定の距離を置こうと移動する。
-近づきすぎたら攻撃を激化させる</t>
-    <rPh sb="7" eb="9">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ゲキカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -279,38 +187,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プレイヤーのコントローラーにpublicで距離を指定できるようにする
-その距離以内に敵がいた場合、その敵に向かって攻撃する</t>
-    <rPh sb="21" eb="23">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>イナイ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ステータス</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,6 +213,301 @@
     </rPh>
     <rPh sb="61" eb="63">
       <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60ｆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60ｆ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>点攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>線攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>円攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚3</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに高速で近づく(速度は雑魚2の1.5倍くらい)。死んだら爆発(弾は撃たない)</t>
+    <rPh sb="6" eb="8">
+      <t>コウソク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度はpublicで指定できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーから一定の距離を置こうと移動する。
+近づきすぎたら攻撃の間隔を狭め、移動速度を早くする
+攻撃の種類は点、線、円、雑魚召喚</t>
+    <rPh sb="7" eb="9">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>セバ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場に留まりながら弾を撃つ</t>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーに近づく。
+一定以上近づいたらプレイヤーの回りを回る（右回り左回りはpublicで指定）
+弾を一定間隔で打つ。</t>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーのコントローラーにpublicで距離を指定できるようにする
+その距離以内に敵がいた場合、その敵に向かって攻撃する
+複数の敵が範囲内にいた場合は最も近い敵に向かって攻撃
+剣的な何かを振り回す。攻撃中はプレイヤーは攻撃対象の方向を向きながら攻撃</t>
+    <rPh sb="21" eb="23">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イナイ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="67" eb="70">
+      <t>ハンイナイ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>モット</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="110" eb="112">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="112" eb="114">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="115" eb="117">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>コウゲキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -406,14 +577,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F21"/>
+  <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -708,126 +879,136 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="27" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="3" t="s">
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="3" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="B21" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B16" s="3" t="s">
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -836,5 +1017,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/仕様書.xlsx
+++ b/Docs/仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>各攻撃サイン→攻撃のタイミング(60fを基準にした場合)</t>
     <rPh sb="0" eb="1">
@@ -283,19 +283,6 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>移動速度はpublicで指定できるようにする</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソクド</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -508,6 +495,302 @@
     </rPh>
     <rPh sb="123" eb="125">
       <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度、攻撃間隔はpublicで指定できるようにする</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォ値</t>
+    <rPh sb="3" eb="4">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スピード0.1 攻撃間隔1秒1回</t>
+    <rPh sb="8" eb="10">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンカク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーティクル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵攻撃　点攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵攻撃　線攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵攻撃　円攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気の爆発のようなもの。地面に衝撃波的なのもほしい</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショウゲキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ナミ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その場で光る玉みたいなもの</t>
+    <rPh sb="2" eb="3">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回りを切り刻むようなもの。剣閃的なのがいっぱい出てる感じ</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キザ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー攻撃</t>
+    <rPh sb="5" eb="7">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>でかい剣閃的なものを出すためにTrainRendererを使うので、
+TrainRendererでひらぺったく見えるのを隠すため、その場で派手な光等を出すエフェクト</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>バ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テクスチャ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>派手で細かい魔法陣的なもの。一番内側の場所も埋めてる感じで</t>
+    <rPh sb="0" eb="2">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外側が光っている板のようなもの。512*512全部を使ってる感じで</t>
+    <rPh sb="0" eb="2">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外側だけ細かく派手、内側にでかくて大雑把な紋章のようなものがある魔方陣的な感じで</t>
+    <rPh sb="0" eb="2">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハデ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>オオザッパ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンショウ</t>
+    </rPh>
+    <rPh sb="32" eb="35">
+      <t>マホウジン</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -866,16 +1149,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F22"/>
+  <dimension ref="B3:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="80" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.15">
@@ -916,7 +1200,13 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
@@ -932,7 +1222,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.15">
@@ -940,7 +1230,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:6" ht="40.5" x14ac:dyDescent="0.15">
@@ -948,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.15">
@@ -1000,7 +1290,7 @@
         <v>15</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="27" x14ac:dyDescent="0.15">
@@ -1009,6 +1299,73 @@
       </c>
       <c r="C22" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B28" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B33" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
